--- a/biology/Zoologie/Stenolestes_falloti/Stenolestes_falloti.xlsx
+++ b/biology/Zoologie/Stenolestes_falloti/Stenolestes_falloti.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Indophaea falloti
 La libellule demoiselle Stenolestes falloti est une espèce fossile du genre Stenolestes, de la famille des Sieblosiidae, dans l'ordre des Odonates.
@@ -512,17 +524,11 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'espèce Stenolestes falloti est décrite en 1937 par le paléontologue français Nicolas Théobald (1903-1981) dans sa thèse, sous le protonyme Indophaea falloti[1],[2]
-Renommage
-Indophaea falloti est renommée Stenolestes falloti en 1986 par l'entomologiste français André Nel[3],[2].
-Ce rennomage est repris en 1994 par Nel et Paicheler[4], en 2021 par Nel et Zheng[5], ainsi qu'en 2021 par Archibald et al.[6],[2]
-À la suite de ce renommage, l'espèce Stenolestes falloti à la famille des Sieblosiidae, fossile. Elle est passée provisoirement par la sous-famille des Petrolestinae de la famille des Dysagrionidae.
-Fossiles
-Selon la Paleobiology Database  en 2023, une seule collection est référencée et l'holotype, de l'ère Cénozoïque, et du Rupélien de l'époque Oligocène inférieur (33,9 à 23,03 Ma.) fait partie de la collection du muséum national d'histoire naturelle de Paris, dans la galerie de Paléontologie[7],[note 1] et vient de la formation de Céreste dans les Basses-Alpes[1]. À la publication l'espèce est décrite comme appartenant à la famille des Agrionidae et à la sous-famille des Eppallaginae. 
-Étymologie
-L'épithète spécifique a été attribué en hommage au géologue et professeur français Paul Fallot (1889-1960), directeur de l'institut de géologie de Nancy[note 2],[9].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce Stenolestes falloti est décrite en 1937 par le paléontologue français Nicolas Théobald (1903-1981) dans sa thèse, sous le protonyme Indophaea falloti,
 </t>
         </is>
       </c>
@@ -548,16 +554,20 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Description</t>
+          <t>Classification</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Caractères
-La demoiselle est un 
-« insecte montrant la tête, le thorax, les pattes i et II et les ailes. Tête robuste, transversale ; deux gros yeux saillants, largement séparés; front allongé, tronconique ; labre arrondi à l'avant ; occiput légèrement concave. Thorax allongé; prothorax court, nettement séparé de la tête par un cou profondément étranglé; pronotum légèrement rétréci à l'arrière ; mésothorax débordant légèrement le prothorax, plus long que large ; deux sutures noto-pleurales à peu près parallèles ; on distingue en arrière le métathorax. Abdomen allongé et épaissi vers l'apex ; sur l'échantillon il est recourbé ; on ne peut pas discerner l'armure génitale. Pattes courtes, cils raides sur tibias. Ailes assez bien conservées, dépassant légèrement l'abdomen, presque identiques et de même largeur ; nettement pétiolées, surtout les ailes postérieures ; nodus plus près de la base que du sommet de l'aile (caractère surtout net pour les ailes antérieures) ; nervures anténodales peu nombreuses ; ptérostigma long et étroit ; arculus droit. »[1].
-Dimensions
-Les dimensions sont : tête : longueur 6 mm, largeur 6 mm; thorax : longueur 13 mm, largeur 6,5 mm; abdomen : longueur 41 mm, largeur 3,75 mm;ailes : longueur 50 mm, largeur 12 mm;[1]
+          <t>Renommage</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Indophaea falloti est renommée Stenolestes falloti en 1986 par l'entomologiste français André Nel,.
+Ce rennomage est repris en 1994 par Nel et Paicheler, en 2021 par Nel et Zheng, ainsi qu'en 2021 par Archibald et al.,
+À la suite de ce renommage, l'espèce Stenolestes falloti à la famille des Sieblosiidae, fossile. Elle est passée provisoirement par la sous-famille des Petrolestinae de la famille des Dysagrionidae.
 </t>
         </is>
       </c>
@@ -583,12 +593,164 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
+          <t>Classification</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Fossiles</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon la Paleobiology Database  en 2023, une seule collection est référencée et l'holotype, de l'ère Cénozoïque, et du Rupélien de l'époque Oligocène inférieur (33,9 à 23,03 Ma.) fait partie de la collection du muséum national d'histoire naturelle de Paris, dans la galerie de Paléontologie,[note 1] et vient de la formation de Céreste dans les Basses-Alpes. À la publication l'espèce est décrite comme appartenant à la famille des Agrionidae et à la sous-famille des Eppallaginae. 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Stenolestes_falloti</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Stenolestes_falloti</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Classification</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Étymologie</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'épithète spécifique a été attribué en hommage au géologue et professeur français Paul Fallot (1889-1960), directeur de l'institut de géologie de Nancy[note 2],.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Stenolestes_falloti</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Stenolestes_falloti</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Caractères</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+La demoiselle est un 
+« insecte montrant la tête, le thorax, les pattes i et II et les ailes. Tête robuste, transversale ; deux gros yeux saillants, largement séparés; front allongé, tronconique ; labre arrondi à l'avant ; occiput légèrement concave. Thorax allongé; prothorax court, nettement séparé de la tête par un cou profondément étranglé; pronotum légèrement rétréci à l'arrière ; mésothorax débordant légèrement le prothorax, plus long que large ; deux sutures noto-pleurales à peu près parallèles ; on distingue en arrière le métathorax. Abdomen allongé et épaissi vers l'apex ; sur l'échantillon il est recourbé ; on ne peut pas discerner l'armure génitale. Pattes courtes, cils raides sur tibias. Ailes assez bien conservées, dépassant légèrement l'abdomen, presque identiques et de même largeur ; nettement pétiolées, surtout les ailes postérieures ; nodus plus près de la base que du sommet de l'aile (caractère surtout net pour les ailes antérieures) ; nervures anténodales peu nombreuses ; ptérostigma long et étroit ; arculus droit. ».
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Stenolestes_falloti</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Stenolestes_falloti</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Dimensions</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les dimensions sont : tête : longueur 6 mm, largeur 6 mm; thorax : longueur 13 mm, largeur 6,5 mm; abdomen : longueur 41 mm, largeur 3,75 mm;ailes : longueur 50 mm, largeur 12 mm;
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Stenolestes_falloti</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Stenolestes_falloti</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
           <t>Biologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">« Le genre Indophaea vit à Bornéo et en Malaisie au bord des eaux. »[1]
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">« Le genre Indophaea vit à Bornéo et en Malaisie au bord des eaux. »
 </t>
         </is>
       </c>
